--- a/courses.xlsx
+++ b/courses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="819">
   <si>
     <t xml:space="preserve">Варианты направлений: </t>
   </si>
@@ -824,6 +824,9 @@
     <t>отработка технических настроек фотокамеры, базовая корректировка в Photoshop, создание  серии снимков, создание  качественного контента.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>«Воспитание геологией», Ильмены</t>
   </si>
   <si>
@@ -1900,6 +1903,9 @@
     <t>«Конструирование из бумаги» (Углубленный уровень). Паперкрафт</t>
   </si>
   <si>
+    <t>ПН, ЧТ 9.00-11.35</t>
+  </si>
+  <si>
     <t>Резьба по дереву», СделаноРуками</t>
   </si>
   <si>
@@ -2187,9 +2193,6 @@
     <t>Жильцова Виктория Валерьевна</t>
   </si>
   <si>
-    <t>ПН, ЧТ 9.00-11.35</t>
-  </si>
-  <si>
     <t>Величковский Константин Сергеевич</t>
   </si>
   <si>
@@ -2418,7 +2421,7 @@
     <t>ПН, ЧТ 13.35-16.10</t>
   </si>
   <si>
-    <t>Театр моды "Детское вязание"</t>
+    <t>Театр моды. Театр моды "Детское вязание"</t>
   </si>
   <si>
     <t>Актерское мастерство и театральная деятельность, обучение навыкам вязания, выступления в миниспектаклях и коллекциях в вязанных костюмах</t>
@@ -2428,9 +2431,6 @@
   </si>
   <si>
     <t>ул. 8 Июля, 45 ( СОШ № 11)</t>
-  </si>
-  <si>
-    <t>по расписанию школы</t>
   </si>
   <si>
     <t>Хореография направлений hip-hop.  Мы в танцах</t>
@@ -6744,7 +6744,9 @@
         <v>229</v>
       </c>
       <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="L45" s="48" t="s">
+        <v>233</v>
+      </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -6755,20 +6757,20 @@
     </row>
     <row r="46">
       <c r="A46" s="74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B46" s="137" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D46" s="142"/>
       <c r="E46" s="142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F46" s="131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G46" s="110" t="s">
         <v>27</v>
@@ -6778,10 +6780,10 @@
       </c>
       <c r="I46" s="78"/>
       <c r="J46" s="48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K46" s="48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -6794,20 +6796,20 @@
     </row>
     <row r="47">
       <c r="A47" s="80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B47" s="143">
         <v>44174.0</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D47" s="144"/>
       <c r="E47" s="144" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F47" s="108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G47" s="95" t="s">
         <v>27</v>
@@ -6817,7 +6819,7 @@
       </c>
       <c r="I47" s="88"/>
       <c r="J47" s="88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -6831,20 +6833,20 @@
     </row>
     <row r="48">
       <c r="A48" s="80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B48" s="143">
         <v>44174.0</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D48" s="144"/>
       <c r="E48" s="144" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F48" s="108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G48" s="110" t="s">
         <v>27</v>
@@ -6854,7 +6856,7 @@
       </c>
       <c r="I48" s="88"/>
       <c r="J48" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -6868,22 +6870,22 @@
     </row>
     <row r="49">
       <c r="A49" s="74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B49" s="145" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D49" s="119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F49" s="115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G49" s="95" t="s">
         <v>27</v>
@@ -6893,13 +6895,13 @@
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
@@ -6920,22 +6922,22 @@
     </row>
     <row r="50">
       <c r="A50" s="147" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B50" s="138">
         <v>44811.0</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" s="92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E50" s="92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G50" s="110" t="s">
         <v>27</v>
@@ -6945,13 +6947,13 @@
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L50" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M50" s="34"/>
       <c r="N50" s="34"/>
@@ -6972,22 +6974,22 @@
     </row>
     <row r="51">
       <c r="A51" s="147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B51" s="138">
         <v>44874.0</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D51" s="92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E51" s="92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G51" s="95" t="s">
         <v>27</v>
@@ -6999,7 +7001,7 @@
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M51" s="34"/>
       <c r="N51" s="34"/>
@@ -7020,22 +7022,22 @@
     </row>
     <row r="52">
       <c r="A52" s="39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52" s="148">
         <v>44142.0</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D52" s="122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E52" s="139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" s="94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G52" s="110" t="s">
         <v>27</v>
@@ -7045,7 +7047,7 @@
       </c>
       <c r="I52" s="109"/>
       <c r="J52" s="130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K52" s="142"/>
       <c r="L52" s="142"/>
@@ -7068,22 +7070,22 @@
     </row>
     <row r="53">
       <c r="A53" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" s="143">
         <v>44841.0</v>
       </c>
       <c r="C53" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D53" s="130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E53" s="130" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F53" s="94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G53" s="95" t="s">
         <v>27</v>
@@ -7093,13 +7095,13 @@
       </c>
       <c r="I53" s="53"/>
       <c r="J53" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M53" s="34"/>
       <c r="N53" s="34"/>
@@ -7120,22 +7122,22 @@
     </row>
     <row r="54">
       <c r="A54" s="151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E54" s="122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" s="103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G54" s="95" t="s">
         <v>27</v>
@@ -7145,19 +7147,19 @@
       </c>
       <c r="I54" s="53"/>
       <c r="J54" s="53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K54" s="33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M54" s="33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N54" s="33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O54" s="34"/>
       <c r="P54" s="34"/>
@@ -7176,22 +7178,22 @@
     </row>
     <row r="55">
       <c r="A55" s="39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B55" s="138">
         <v>44780.0</v>
       </c>
       <c r="C55" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D55" s="92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F55" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G55" s="95" t="s">
         <v>27</v>
@@ -7204,7 +7206,7 @@
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N55" s="34"/>
       <c r="O55" s="34"/>
@@ -7224,22 +7226,22 @@
     </row>
     <row r="56">
       <c r="A56" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" s="138">
         <v>44874.0</v>
       </c>
       <c r="C56" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D56" s="92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F56" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G56" s="95" t="s">
         <v>27</v>
@@ -7249,16 +7251,16 @@
       </c>
       <c r="I56" s="53"/>
       <c r="J56" s="53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M56" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N56" s="34"/>
       <c r="O56" s="34"/>
@@ -7278,7 +7280,7 @@
     </row>
     <row r="57">
       <c r="A57" s="152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B57" s="153" t="s">
         <v>146</v>
@@ -7287,13 +7289,13 @@
         <v>23</v>
       </c>
       <c r="D57" s="155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E57" s="156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F57" s="155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G57" s="157" t="s">
         <v>27</v>
@@ -7305,13 +7307,13 @@
         <v>1.0</v>
       </c>
       <c r="J57" s="160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K57" s="160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L57" s="161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M57" s="162"/>
       <c r="N57" s="162"/>
@@ -7332,22 +7334,22 @@
     </row>
     <row r="58">
       <c r="A58" s="152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B58" s="153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C58" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E58" s="165" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F58" s="155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G58" s="157" t="s">
         <v>27</v>
@@ -7382,7 +7384,7 @@
     </row>
     <row r="59">
       <c r="A59" s="167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B59" s="153" t="s">
         <v>146</v>
@@ -7391,13 +7393,13 @@
         <v>23</v>
       </c>
       <c r="D59" s="155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E59" s="165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F59" s="155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G59" s="157" t="s">
         <v>27</v>
@@ -7409,10 +7411,10 @@
         <v>1.0</v>
       </c>
       <c r="J59" s="160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K59" s="160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L59" s="162"/>
       <c r="M59" s="162"/>
@@ -7434,7 +7436,7 @@
     </row>
     <row r="60">
       <c r="A60" s="165" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B60" s="153" t="s">
         <v>146</v>
@@ -7443,13 +7445,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E60" s="167" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F60" s="155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G60" s="157" t="s">
         <v>27</v>
@@ -7461,7 +7463,7 @@
         <v>1.0</v>
       </c>
       <c r="J60" s="160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K60" s="160"/>
       <c r="L60" s="160"/>
@@ -7484,22 +7486,22 @@
     </row>
     <row r="61">
       <c r="A61" s="152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B61" s="153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E61" s="165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F61" s="169" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G61" s="157" t="s">
         <v>27</v>
@@ -7511,7 +7513,7 @@
         <v>1.0</v>
       </c>
       <c r="J61" s="160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K61" s="160"/>
       <c r="L61" s="160"/>
@@ -7534,7 +7536,7 @@
     </row>
     <row r="62">
       <c r="A62" s="170" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B62" s="171">
         <v>44786.0</v>
@@ -7543,13 +7545,13 @@
         <v>23</v>
       </c>
       <c r="D62" s="168" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E62" s="172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F62" s="173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G62" s="157" t="s">
         <v>27</v>
@@ -7561,10 +7563,10 @@
         <v>1.0</v>
       </c>
       <c r="J62" s="160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K62" s="160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L62" s="160"/>
       <c r="M62" s="175"/>
@@ -7586,22 +7588,22 @@
     </row>
     <row r="63">
       <c r="A63" s="170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B63" s="178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C63" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="168" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E63" s="172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F63" s="173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G63" s="157" t="s">
         <v>27</v>
@@ -7636,7 +7638,7 @@
     </row>
     <row r="64">
       <c r="A64" s="179" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B64" s="178" t="s">
         <v>84</v>
@@ -7645,13 +7647,13 @@
         <v>23</v>
       </c>
       <c r="D64" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E64" s="180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F64" s="181" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G64" s="157" t="s">
         <v>27</v>
@@ -7666,7 +7668,7 @@
         <v>161</v>
       </c>
       <c r="K64" s="160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L64" s="160"/>
       <c r="M64" s="175"/>
@@ -7688,22 +7690,22 @@
     </row>
     <row r="65">
       <c r="A65" s="173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B65" s="178" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C65" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E65" s="182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F65" s="181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G65" s="157" t="s">
         <v>27</v>
@@ -7715,10 +7717,10 @@
         <v>1.0</v>
       </c>
       <c r="J65" s="160" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K65" s="160" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L65" s="160"/>
       <c r="M65" s="175"/>
@@ -7740,22 +7742,22 @@
     </row>
     <row r="66">
       <c r="A66" s="183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B66" s="178" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C66" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E66" s="172" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F66" s="181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G66" s="157" t="s">
         <v>27</v>
@@ -7767,7 +7769,7 @@
         <v>1.0</v>
       </c>
       <c r="J66" s="160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K66" s="160"/>
       <c r="L66" s="160"/>
@@ -7790,22 +7792,22 @@
     </row>
     <row r="67">
       <c r="A67" s="173" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" s="178" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C67" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E67" s="172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F67" s="181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G67" s="157" t="s">
         <v>27</v>
@@ -7815,7 +7817,7 @@
       </c>
       <c r="I67" s="159"/>
       <c r="J67" s="160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K67" s="160" t="s">
         <v>159</v>
@@ -7842,22 +7844,22 @@
     </row>
     <row r="68">
       <c r="A68" s="173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B68" s="178" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C68" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E68" s="172" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F68" s="181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G68" s="157" t="s">
         <v>27</v>
@@ -7867,7 +7869,7 @@
       </c>
       <c r="I68" s="159"/>
       <c r="J68" s="160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K68" s="160"/>
       <c r="L68" s="160"/>
@@ -7890,7 +7892,7 @@
     </row>
     <row r="69">
       <c r="A69" s="173" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B69" s="178" t="s">
         <v>146</v>
@@ -7899,13 +7901,13 @@
         <v>23</v>
       </c>
       <c r="D69" s="168" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E69" s="172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F69" s="184" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G69" s="157" t="s">
         <v>27</v>
@@ -7915,7 +7917,7 @@
       </c>
       <c r="I69" s="159"/>
       <c r="J69" s="160" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K69" s="160"/>
       <c r="L69" s="160"/>
@@ -7938,7 +7940,7 @@
     </row>
     <row r="70">
       <c r="A70" s="173" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B70" s="171">
         <v>44903.0</v>
@@ -7947,13 +7949,13 @@
         <v>23</v>
       </c>
       <c r="D70" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E70" s="172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F70" s="181" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G70" s="157" t="s">
         <v>27</v>
@@ -7965,16 +7967,16 @@
         <v>1.0</v>
       </c>
       <c r="J70" s="160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K70" s="160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L70" s="160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M70" s="160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N70" s="175"/>
       <c r="O70" s="175"/>
@@ -7994,22 +7996,22 @@
     </row>
     <row r="71">
       <c r="A71" s="165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B71" s="178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C71" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E71" s="172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F71" s="181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G71" s="157" t="s">
         <v>27</v>
@@ -8021,7 +8023,7 @@
         <v>1.0</v>
       </c>
       <c r="J71" s="160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K71" s="160"/>
       <c r="L71" s="160"/>
@@ -8044,22 +8046,22 @@
     </row>
     <row r="72">
       <c r="A72" s="165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B72" s="178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C72" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E72" s="172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F72" s="181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G72" s="157" t="s">
         <v>27</v>
@@ -8071,7 +8073,7 @@
         <v>1.0</v>
       </c>
       <c r="J72" s="160" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K72" s="160"/>
       <c r="L72" s="160"/>
@@ -8094,22 +8096,22 @@
     </row>
     <row r="73">
       <c r="A73" s="173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B73" s="178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C73" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E73" s="185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F73" s="181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G73" s="157" t="s">
         <v>27</v>
@@ -8121,7 +8123,7 @@
         <v>1.0</v>
       </c>
       <c r="J73" s="160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K73" s="160"/>
       <c r="L73" s="160"/>
@@ -8144,22 +8146,22 @@
     </row>
     <row r="74">
       <c r="A74" s="173" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B74" s="178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E74" s="186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F74" s="181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G74" s="157" t="s">
         <v>27</v>
@@ -8171,7 +8173,7 @@
         <v>1.0</v>
       </c>
       <c r="J74" s="160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K74" s="160"/>
       <c r="L74" s="160"/>
@@ -8194,22 +8196,22 @@
     </row>
     <row r="75">
       <c r="A75" s="165" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B75" s="178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C75" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E75" s="172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F75" s="181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G75" s="157" t="s">
         <v>27</v>
@@ -8221,7 +8223,7 @@
         <v>1.0</v>
       </c>
       <c r="J75" s="160" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K75" s="160"/>
       <c r="L75" s="160"/>
@@ -8244,22 +8246,22 @@
     </row>
     <row r="76">
       <c r="A76" s="173" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B76" s="178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C76" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="173" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E76" s="170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F76" s="181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G76" s="157" t="s">
         <v>27</v>
@@ -8269,7 +8271,7 @@
       </c>
       <c r="I76" s="159"/>
       <c r="J76" s="160" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K76" s="160" t="s">
         <v>52</v>
@@ -8294,22 +8296,22 @@
     </row>
     <row r="77">
       <c r="A77" s="173" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B77" s="178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C77" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="184" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E77" s="187" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F77" s="188" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G77" s="157" t="s">
         <v>27</v>
@@ -8321,13 +8323,13 @@
         <v>1.0</v>
       </c>
       <c r="J77" s="160" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K77" s="160" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L77" s="160" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M77" s="160"/>
       <c r="N77" s="175"/>
@@ -8348,7 +8350,7 @@
     </row>
     <row r="78">
       <c r="A78" s="173" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B78" s="178" t="s">
         <v>71</v>
@@ -8357,13 +8359,13 @@
         <v>23</v>
       </c>
       <c r="D78" s="168" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E78" s="187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F78" s="188" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G78" s="157" t="s">
         <v>27</v>
@@ -8375,16 +8377,16 @@
         <v>2.0</v>
       </c>
       <c r="J78" s="160" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K78" s="160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L78" s="160" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M78" s="160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N78" s="175"/>
       <c r="O78" s="175"/>
@@ -8404,7 +8406,7 @@
     </row>
     <row r="79">
       <c r="A79" s="173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B79" s="178" t="s">
         <v>191</v>
@@ -8413,13 +8415,13 @@
         <v>23</v>
       </c>
       <c r="D79" s="168" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E79" s="187" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F79" s="188" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G79" s="157" t="s">
         <v>27</v>
@@ -8431,13 +8433,13 @@
         <v>2.0</v>
       </c>
       <c r="J79" s="160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K79" s="160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L79" s="160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M79" s="175"/>
       <c r="N79" s="175"/>
@@ -8458,7 +8460,7 @@
     </row>
     <row r="80">
       <c r="A80" s="173" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B80" s="178" t="s">
         <v>38</v>
@@ -8467,13 +8469,13 @@
         <v>23</v>
       </c>
       <c r="D80" s="168" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E80" s="187" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F80" s="184" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G80" s="157" t="s">
         <v>27</v>
@@ -8485,13 +8487,13 @@
         <v>2.0</v>
       </c>
       <c r="J80" s="160" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K80" s="160" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L80" s="160" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M80" s="175"/>
       <c r="N80" s="175"/>
@@ -8512,22 +8514,22 @@
     </row>
     <row r="81">
       <c r="A81" s="173" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B81" s="178" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C81" s="154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="168" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E81" s="187" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F81" s="184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G81" s="157" t="s">
         <v>27</v>
@@ -8537,13 +8539,13 @@
       </c>
       <c r="I81" s="159"/>
       <c r="J81" s="160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K81" s="160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L81" s="160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M81" s="175"/>
       <c r="N81" s="175"/>
@@ -8564,7 +8566,7 @@
     </row>
     <row r="82">
       <c r="A82" s="173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B82" s="171">
         <v>44903.0</v>
@@ -8573,13 +8575,13 @@
         <v>23</v>
       </c>
       <c r="D82" s="168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E82" s="180" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F82" s="184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G82" s="157" t="s">
         <v>27</v>
@@ -8614,22 +8616,22 @@
     </row>
     <row r="83">
       <c r="A83" s="173" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B83" s="178" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="181" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E83" s="186" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F83" s="181" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G83" s="157" t="s">
         <v>27</v>
@@ -8639,7 +8641,7 @@
       </c>
       <c r="I83" s="159"/>
       <c r="J83" s="160" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K83" s="160" t="s">
         <v>95</v>
@@ -8666,22 +8668,22 @@
     </row>
     <row r="84">
       <c r="A84" s="173" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B84" s="178" t="s">
         <v>191</v>
       </c>
       <c r="C84" s="154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="181" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E84" s="186" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F84" s="181" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G84" s="157" t="s">
         <v>27</v>
@@ -8691,7 +8693,7 @@
       </c>
       <c r="I84" s="159"/>
       <c r="J84" s="160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K84" s="160"/>
       <c r="L84" s="160"/>
@@ -8714,7 +8716,7 @@
     </row>
     <row r="85">
       <c r="A85" s="173" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B85" s="178" t="s">
         <v>146</v>
@@ -8723,13 +8725,13 @@
         <v>23</v>
       </c>
       <c r="D85" s="168" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E85" s="186" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F85" s="181" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G85" s="157" t="s">
         <v>27</v>
@@ -8739,13 +8741,13 @@
       </c>
       <c r="I85" s="159"/>
       <c r="J85" s="160" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K85" s="160" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L85" s="160" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M85" s="175"/>
       <c r="N85" s="175"/>
@@ -8766,7 +8768,7 @@
     </row>
     <row r="86">
       <c r="A86" s="173" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B86" s="178" t="s">
         <v>146</v>
@@ -8775,13 +8777,13 @@
         <v>23</v>
       </c>
       <c r="D86" s="168" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E86" s="186" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F86" s="181" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G86" s="157" t="s">
         <v>27</v>
@@ -8791,7 +8793,7 @@
       </c>
       <c r="I86" s="159"/>
       <c r="J86" s="160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K86" s="160"/>
       <c r="L86" s="160"/>
@@ -8814,7 +8816,7 @@
     </row>
     <row r="87">
       <c r="A87" s="189" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B87" s="190">
         <v>44841.0</v>
@@ -8823,13 +8825,13 @@
         <v>23</v>
       </c>
       <c r="D87" s="173" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E87" s="186" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F87" s="181" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G87" s="157" t="s">
         <v>27</v>
@@ -8842,7 +8844,7 @@
         <v>95</v>
       </c>
       <c r="K87" s="160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L87" s="160"/>
       <c r="M87" s="175"/>
@@ -8864,7 +8866,7 @@
     </row>
     <row r="88">
       <c r="A88" s="189" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B88" s="191">
         <v>44841.0</v>
@@ -8873,13 +8875,13 @@
         <v>23</v>
       </c>
       <c r="D88" s="173" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E88" s="186" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F88" s="181" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G88" s="157" t="s">
         <v>27</v>
@@ -8889,7 +8891,7 @@
       </c>
       <c r="I88" s="159"/>
       <c r="J88" s="160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K88" s="160"/>
       <c r="L88" s="160"/>
@@ -8912,7 +8914,7 @@
     </row>
     <row r="89">
       <c r="A89" s="173" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B89" s="192">
         <v>44841.0</v>
@@ -8921,13 +8923,13 @@
         <v>98</v>
       </c>
       <c r="D89" s="184" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E89" s="193" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F89" s="184" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G89" s="157" t="s">
         <v>27</v>
@@ -8937,10 +8939,10 @@
       </c>
       <c r="I89" s="194"/>
       <c r="J89" s="195" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K89" s="195" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L89" s="195"/>
       <c r="M89" s="196"/>
@@ -8962,7 +8964,7 @@
     </row>
     <row r="90">
       <c r="A90" s="173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B90" s="199">
         <v>44903.0</v>
@@ -8971,13 +8973,13 @@
         <v>98</v>
       </c>
       <c r="D90" s="173" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E90" s="200" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F90" s="184" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G90" s="157" t="s">
         <v>27</v>
@@ -8987,7 +8989,7 @@
       </c>
       <c r="I90" s="194"/>
       <c r="J90" s="195" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K90" s="195"/>
       <c r="L90" s="195"/>
@@ -9010,22 +9012,22 @@
     </row>
     <row r="91">
       <c r="A91" s="173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B91" s="199" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C91" s="154" t="s">
         <v>98</v>
       </c>
       <c r="D91" s="184" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E91" s="200" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F91" s="184" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G91" s="157" t="s">
         <v>27</v>
@@ -9035,7 +9037,7 @@
       </c>
       <c r="I91" s="194"/>
       <c r="J91" s="195" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K91" s="195"/>
       <c r="L91" s="195"/>
@@ -9058,22 +9060,22 @@
     </row>
     <row r="92">
       <c r="A92" s="173" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B92" s="201" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C92" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E92" s="200" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F92" s="184" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G92" s="157" t="s">
         <v>27</v>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="I92" s="194"/>
       <c r="J92" s="195" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K92" s="195" t="s">
         <v>211</v>
@@ -9108,7 +9110,7 @@
     </row>
     <row r="93">
       <c r="A93" s="173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B93" s="202">
         <v>44841.0</v>
@@ -9117,13 +9119,13 @@
         <v>23</v>
       </c>
       <c r="D93" s="168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E93" s="184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F93" s="203" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G93" s="157" t="s">
         <v>27</v>
@@ -9133,13 +9135,13 @@
       </c>
       <c r="I93" s="194"/>
       <c r="J93" s="195" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K93" s="195" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L93" s="195" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M93" s="196"/>
       <c r="N93" s="196"/>
@@ -9160,22 +9162,22 @@
     </row>
     <row r="94">
       <c r="A94" s="173" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B94" s="153" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E94" s="184" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F94" s="203" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G94" s="157" t="s">
         <v>27</v>
@@ -9185,7 +9187,7 @@
       </c>
       <c r="I94" s="194"/>
       <c r="J94" s="195" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K94" s="195"/>
       <c r="L94" s="195"/>
@@ -9208,7 +9210,7 @@
     </row>
     <row r="95">
       <c r="A95" s="173" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B95" s="153" t="s">
         <v>67</v>
@@ -9217,10 +9219,10 @@
         <v>23</v>
       </c>
       <c r="D95" s="168" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E95" s="184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F95" s="203"/>
       <c r="G95" s="157" t="s">
@@ -9231,7 +9233,7 @@
       </c>
       <c r="I95" s="194"/>
       <c r="J95" s="195" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K95" s="195"/>
       <c r="L95" s="195"/>
@@ -9284,7 +9286,7 @@
     </row>
     <row r="97">
       <c r="A97" s="19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -9307,10 +9309,10 @@
     </row>
     <row r="98">
       <c r="A98" s="54" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C98" s="91" t="s">
         <v>98</v>
@@ -9319,23 +9321,23 @@
         <v>99</v>
       </c>
       <c r="E98" s="92" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F98" s="94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G98" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H98" s="96" t="s">
         <v>28</v>
       </c>
       <c r="I98" s="53"/>
       <c r="J98" s="33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K98" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P98" s="34"/>
       <c r="Q98" s="34"/>
@@ -9353,10 +9355,10 @@
     </row>
     <row r="99">
       <c r="A99" s="54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C99" s="91" t="s">
         <v>98</v>
@@ -9365,29 +9367,29 @@
         <v>99</v>
       </c>
       <c r="E99" s="92" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F99" s="94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G99" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H99" s="96"/>
       <c r="I99" s="53"/>
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
       <c r="L99" s="33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M99" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O99" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P99" s="34"/>
       <c r="Q99" s="34"/>
@@ -9405,7 +9407,7 @@
     </row>
     <row r="100">
       <c r="A100" s="214" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B100" s="215" t="s">
         <v>97</v>
@@ -9414,35 +9416,35 @@
         <v>109</v>
       </c>
       <c r="D100" s="216" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E100" s="213" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F100" s="217" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G100" s="218" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H100" s="219" t="s">
         <v>28</v>
       </c>
       <c r="I100" s="53"/>
       <c r="J100" s="33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K100" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L100" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M100" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O100" s="34"/>
       <c r="P100" s="34"/>
@@ -9461,7 +9463,7 @@
     </row>
     <row r="101">
       <c r="A101" s="54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B101" s="90" t="s">
         <v>108</v>
@@ -9470,16 +9472,16 @@
         <v>109</v>
       </c>
       <c r="D101" s="92" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E101" s="220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F101" s="94" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G101" s="95" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H101" s="101" t="s">
         <v>28</v>
@@ -9490,7 +9492,7 @@
       <c r="L101" s="34"/>
       <c r="M101" s="34"/>
       <c r="N101" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O101" s="34"/>
       <c r="P101" s="34"/>
@@ -9509,7 +9511,7 @@
     </row>
     <row r="102">
       <c r="A102" s="80" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B102" s="221">
         <v>44172.0</v>
@@ -9518,30 +9520,30 @@
         <v>109</v>
       </c>
       <c r="D102" s="222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E102" s="223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F102" s="224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G102" s="225" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H102" s="226" t="s">
         <v>28</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M102" s="34"/>
       <c r="N102" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O102" s="34"/>
       <c r="P102" s="34"/>
@@ -9560,7 +9562,7 @@
     </row>
     <row r="103">
       <c r="A103" s="80" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B103" s="227">
         <v>44904.0</v>
@@ -9572,13 +9574,13 @@
         <v>129</v>
       </c>
       <c r="E103" s="223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F103" s="224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G103" s="225" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H103" s="226" t="s">
         <v>28</v>
@@ -9587,10 +9589,10 @@
       <c r="J103" s="34"/>
       <c r="K103" s="34"/>
       <c r="L103" s="33" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M103" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N103" s="34"/>
       <c r="O103" s="34"/>
@@ -9610,7 +9612,7 @@
     </row>
     <row r="104">
       <c r="A104" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B104" s="90" t="s">
         <v>108</v>
@@ -9622,23 +9624,23 @@
         <v>129</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F104" s="94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G104" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H104" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I104" s="53"/>
       <c r="J104" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K104" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L104" s="34"/>
       <c r="M104" s="34"/>
@@ -9660,7 +9662,7 @@
     </row>
     <row r="105">
       <c r="A105" s="54" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B105" s="90" t="s">
         <v>108</v>
@@ -9672,13 +9674,13 @@
         <v>129</v>
       </c>
       <c r="E105" s="93" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F105" s="94" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G105" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H105" s="101" t="s">
         <v>28</v>
@@ -9687,10 +9689,10 @@
       <c r="J105" s="34"/>
       <c r="K105" s="34"/>
       <c r="L105" s="33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M105" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N105" s="34"/>
       <c r="O105" s="34"/>
@@ -9710,7 +9712,7 @@
     </row>
     <row r="106">
       <c r="A106" s="54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B106" s="90" t="s">
         <v>58</v>
@@ -9722,13 +9724,13 @@
         <v>129</v>
       </c>
       <c r="E106" s="93" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F106" s="94" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G106" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H106" s="101" t="s">
         <v>28</v>
@@ -9740,10 +9742,10 @@
       <c r="K106" s="34"/>
       <c r="L106" s="34"/>
       <c r="M106" s="33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N106" s="33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O106" s="34"/>
       <c r="P106" s="34"/>
@@ -9762,7 +9764,7 @@
     </row>
     <row r="107">
       <c r="A107" s="54" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B107" s="90" t="s">
         <v>58</v>
@@ -9774,13 +9776,13 @@
         <v>129</v>
       </c>
       <c r="E107" s="93" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F107" s="94" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G107" s="110" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H107" s="101" t="s">
         <v>28</v>
@@ -9788,7 +9790,7 @@
       <c r="I107" s="126"/>
       <c r="J107" s="34"/>
       <c r="K107" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L107" s="33" t="s">
         <v>62</v>
@@ -9812,41 +9814,41 @@
     </row>
     <row r="108">
       <c r="A108" s="80" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B108" s="143">
         <v>44841.0</v>
       </c>
       <c r="C108" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D108" s="130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E108" s="130" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F108" s="108" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G108" s="229" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H108" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I108" s="78"/>
       <c r="J108" s="48" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K108" s="48" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L108" s="48" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M108" s="48" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N108" s="22"/>
       <c r="O108" s="22"/>
@@ -9857,25 +9859,25 @@
     </row>
     <row r="109">
       <c r="A109" s="80" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B109" s="230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C109" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D109" s="231" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E109" s="232" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F109" s="233" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G109" s="234" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H109" s="235" t="s">
         <v>28</v>
@@ -9886,7 +9888,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="48" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
@@ -9896,32 +9898,32 @@
     </row>
     <row r="110">
       <c r="A110" s="74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B110" s="129">
         <v>44780.0</v>
       </c>
       <c r="C110" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D110" s="236" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E110" s="236" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F110" s="131" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G110" s="237" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H110" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I110" s="78"/>
       <c r="J110" s="48" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
@@ -9935,25 +9937,25 @@
     </row>
     <row r="111">
       <c r="A111" s="74" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B111" s="129">
         <v>44904.0</v>
       </c>
       <c r="C111" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D111" s="236" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E111" s="236" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F111" s="131" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G111" s="237" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H111" s="132" t="s">
         <v>28</v>
@@ -9961,13 +9963,13 @@
       <c r="I111" s="73"/>
       <c r="J111" s="22"/>
       <c r="K111" s="48" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L111" s="48" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M111" s="48" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N111" s="22"/>
       <c r="O111" s="22"/>
@@ -9978,25 +9980,25 @@
     </row>
     <row r="112">
       <c r="A112" s="74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="238">
         <v>44811.0</v>
       </c>
       <c r="C112" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D112" s="119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E112" s="119" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F112" s="115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G112" s="237" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H112" s="132" t="s">
         <v>28</v>
@@ -10004,7 +10006,7 @@
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="48" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="22"/>
@@ -10015,7 +10017,7 @@
     </row>
     <row r="113">
       <c r="A113" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -10038,7 +10040,7 @@
     </row>
     <row r="114">
       <c r="A114" s="54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B114" s="90" t="s">
         <v>108</v>
@@ -10047,32 +10049,32 @@
         <v>109</v>
       </c>
       <c r="D114" s="92" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E114" s="92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F114" s="94" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G114" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H114" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I114" s="53"/>
       <c r="J114" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K114" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L114" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M114" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N114" s="34"/>
       <c r="O114" s="34"/>
@@ -10092,23 +10094,23 @@
     </row>
     <row r="115">
       <c r="A115" s="74" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B115" s="238">
         <v>44872.0</v>
       </c>
       <c r="C115" s="146"/>
       <c r="D115" s="119" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E115" s="119" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F115" s="115" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G115" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H115" s="46" t="s">
         <v>28</v>
@@ -10118,10 +10120,10 @@
       <c r="K115" s="33"/>
       <c r="L115" s="34"/>
       <c r="M115" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N115" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
@@ -10140,7 +10142,7 @@
     </row>
     <row r="116">
       <c r="A116" s="106" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B116" s="240">
         <v>44507.0</v>
@@ -10149,16 +10151,16 @@
         <v>109</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F116" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G116" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H116" s="46" t="s">
         <v>28</v>
@@ -10168,7 +10170,7 @@
         <v>62</v>
       </c>
       <c r="K116" s="48" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
@@ -10183,7 +10185,7 @@
     </row>
     <row r="117">
       <c r="A117" s="106" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B117" s="240">
         <v>44507.0</v>
@@ -10195,13 +10197,13 @@
         <v>129</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F117" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G117" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H117" s="46" t="s">
         <v>28</v>
@@ -10210,10 +10212,10 @@
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
       <c r="L117" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="M117" s="48" t="s">
         <v>490</v>
-      </c>
-      <c r="M117" s="48" t="s">
-        <v>489</v>
       </c>
       <c r="N117" s="22"/>
       <c r="O117" s="22"/>
@@ -10224,39 +10226,39 @@
     </row>
     <row r="118">
       <c r="A118" s="39" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B118" s="138">
         <v>44780.0</v>
       </c>
       <c r="C118" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D118" s="242" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E118" s="242" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F118" s="243" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G118" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H118" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="33" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N118" s="34"/>
       <c r="O118" s="34"/>
@@ -10276,37 +10278,37 @@
     </row>
     <row r="119">
       <c r="A119" s="39" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B119" s="138">
         <v>44843.0</v>
       </c>
       <c r="C119" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D119" s="242" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E119" s="242" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F119" s="243" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G119" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H119" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I119" s="53"/>
       <c r="J119" s="53" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K119" s="34"/>
       <c r="L119" s="34"/>
       <c r="M119" s="33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N119" s="34"/>
       <c r="O119" s="34"/>
@@ -10326,7 +10328,7 @@
     </row>
     <row r="120">
       <c r="A120" s="244" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B120" s="171">
         <v>44841.0</v>
@@ -10335,32 +10337,32 @@
         <v>23</v>
       </c>
       <c r="D120" s="245" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E120" s="246" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F120" s="247" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G120" s="248" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H120" s="174" t="s">
         <v>28</v>
       </c>
       <c r="I120" s="249"/>
       <c r="J120" s="250" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K120" s="250" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L120" s="250" t="s">
         <v>159</v>
       </c>
       <c r="M120" s="250" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N120" s="251"/>
       <c r="O120" s="251"/>
@@ -10380,7 +10382,7 @@
     </row>
     <row r="121">
       <c r="A121" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -10403,7 +10405,7 @@
     </row>
     <row r="122">
       <c r="A122" s="74" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B122" s="79">
         <v>44811.0</v>
@@ -10412,29 +10414,29 @@
         <v>23</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G122" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H122" s="77" t="s">
         <v>28</v>
       </c>
       <c r="I122" s="73"/>
       <c r="J122" s="48" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K122" s="48" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L122" s="48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
@@ -10446,25 +10448,25 @@
     </row>
     <row r="123">
       <c r="A123" s="74" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B123" s="75" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C123" s="254" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F123" s="76" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G123" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H123" s="77" t="s">
         <v>28</v>
@@ -10473,7 +10475,9 @@
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
+      <c r="M123" s="48" t="s">
+        <v>585</v>
+      </c>
       <c r="N123" s="22"/>
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
@@ -10483,7 +10487,7 @@
     </row>
     <row r="124">
       <c r="A124" s="74" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B124" s="75" t="s">
         <v>71</v>
@@ -10492,35 +10496,35 @@
         <v>23</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F124" s="76" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G124" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H124" s="77" t="s">
         <v>28</v>
       </c>
       <c r="I124" s="78"/>
       <c r="J124" s="48" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K124" s="48" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L124" s="48" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M124" s="48" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N124" s="48" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O124" s="22"/>
       <c r="P124" s="22"/>
@@ -10530,30 +10534,30 @@
     </row>
     <row r="125">
       <c r="A125" s="74" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B125" s="75" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C125" s="254" t="s">
         <v>72</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F125" s="76" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G125" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H125" s="77" t="s">
         <v>28</v>
       </c>
       <c r="I125" s="256"/>
       <c r="J125" s="257" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K125" s="257"/>
       <c r="L125" s="257"/>
@@ -10576,23 +10580,23 @@
     </row>
     <row r="126">
       <c r="A126" s="74" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B126" s="75" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C126" s="254" t="s">
         <v>72</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F126" s="76" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G126" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H126" s="77" t="s">
         <v>28</v>
@@ -10600,7 +10604,7 @@
       <c r="I126" s="256"/>
       <c r="J126" s="257"/>
       <c r="K126" s="257" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L126" s="257"/>
       <c r="M126" s="258"/>
@@ -10622,23 +10626,23 @@
     </row>
     <row r="127">
       <c r="A127" s="74" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B127" s="75" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C127" s="254" t="s">
         <v>72</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F127" s="76" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G127" s="255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H127" s="77" t="s">
         <v>28</v>
@@ -10647,7 +10651,7 @@
       <c r="J127" s="257"/>
       <c r="K127" s="257"/>
       <c r="L127" s="257" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M127" s="258"/>
       <c r="N127" s="258"/>
@@ -10668,10 +10672,10 @@
     </row>
     <row r="128">
       <c r="A128" s="104" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C128" s="91" t="s">
         <v>98</v>
@@ -10680,29 +10684,29 @@
         <v>99</v>
       </c>
       <c r="E128" s="92" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F128" s="261" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G128" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H128" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I128" s="78"/>
       <c r="J128" s="48" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K128" s="48" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L128" s="48" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M128" s="48" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
@@ -10713,36 +10717,36 @@
     </row>
     <row r="129">
       <c r="A129" s="262" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B129" s="263" t="s">
         <v>89</v>
       </c>
       <c r="C129" s="264"/>
       <c r="D129" s="265" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E129" s="266" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F129" s="267" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G129" s="268" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H129" s="269" t="s">
         <v>28</v>
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="33" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K129" s="33" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L129" s="33" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M129" s="34"/>
       <c r="N129" s="34"/>
@@ -10763,36 +10767,36 @@
     </row>
     <row r="130">
       <c r="A130" s="54" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B130" s="90" t="s">
         <v>108</v>
       </c>
       <c r="C130" s="270"/>
       <c r="D130" s="92" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E130" s="92" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F130" s="94" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G130" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H130" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I130" s="53"/>
       <c r="J130" s="33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K130" s="33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L130" s="33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M130" s="34"/>
       <c r="N130" s="34"/>
@@ -10813,39 +10817,39 @@
     </row>
     <row r="131">
       <c r="A131" s="54" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B131" s="90" t="s">
         <v>108</v>
       </c>
       <c r="C131" s="270"/>
       <c r="D131" s="92" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E131" s="93" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F131" s="94" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G131" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H131" s="101" t="s">
         <v>28</v>
       </c>
       <c r="I131" s="53"/>
       <c r="J131" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K131" s="33" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L131" s="33" t="s">
         <v>137</v>
       </c>
       <c r="M131" s="33" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N131" s="33" t="s">
         <v>224</v>
@@ -10867,7 +10871,7 @@
     </row>
     <row r="132">
       <c r="A132" s="74" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B132" s="271" t="s">
         <v>108</v>
@@ -10879,13 +10883,13 @@
         <v>129</v>
       </c>
       <c r="E132" s="114" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F132" s="115" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G132" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H132" s="46" t="s">
         <v>28</v>
@@ -10894,19 +10898,19 @@
         <v>2.0</v>
       </c>
       <c r="J132" s="33" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K132" s="33" t="s">
         <v>64</v>
       </c>
       <c r="L132" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M132" s="33" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="N132" s="33" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O132" s="34"/>
       <c r="P132" s="34"/>
@@ -10925,7 +10929,7 @@
     </row>
     <row r="133">
       <c r="A133" s="54" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B133" s="90" t="s">
         <v>108</v>
@@ -10937,13 +10941,13 @@
         <v>129</v>
       </c>
       <c r="E133" s="93" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F133" s="94" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G133" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H133" s="101" t="s">
         <v>28</v>
@@ -10955,16 +10959,16 @@
         <v>62</v>
       </c>
       <c r="K133" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L133" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M133" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N133" s="33" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O133" s="34"/>
       <c r="P133" s="34"/>
@@ -10983,35 +10987,35 @@
     </row>
     <row r="134">
       <c r="A134" s="54" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B134" s="121" t="s">
         <v>191</v>
       </c>
       <c r="C134" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D134" s="122" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E134" s="122" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F134" s="103" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G134" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H134" s="123" t="s">
         <v>28</v>
       </c>
       <c r="I134" s="273"/>
       <c r="J134" s="48" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K134" s="48" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
@@ -11024,7 +11028,7 @@
     </row>
     <row r="135">
       <c r="A135" s="104" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B135" s="121" t="s">
         <v>108</v>
@@ -11036,29 +11040,29 @@
         <v>155</v>
       </c>
       <c r="E135" s="122" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F135" s="103" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G135" s="237" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H135" s="123" t="s">
         <v>28</v>
       </c>
       <c r="I135" s="273"/>
       <c r="J135" s="48" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K135" s="48" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L135" s="48" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M135" s="48" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N135" s="48" t="s">
         <v>160</v>
@@ -11071,25 +11075,25 @@
     </row>
     <row r="136">
       <c r="A136" s="173" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B136" s="153" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C136" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="168" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E136" s="274" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F136" s="275" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G136" s="276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H136" s="158" t="s">
         <v>28</v>
@@ -11098,7 +11102,7 @@
         <v>2.0</v>
       </c>
       <c r="J136" s="160" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
       <c r="K136" s="160" t="s">
         <v>52</v>
@@ -11125,25 +11129,25 @@
     </row>
     <row r="137">
       <c r="A137" s="173" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B137" s="153" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C137" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="168" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E137" s="274" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F137" s="203" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G137" s="276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H137" s="158" t="s">
         <v>28</v>
@@ -11152,10 +11156,10 @@
         <v>2.0</v>
       </c>
       <c r="J137" s="160" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K137" s="160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L137" s="162"/>
       <c r="M137" s="162"/>
@@ -11177,25 +11181,25 @@
     </row>
     <row r="138">
       <c r="A138" s="173" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B138" s="153" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C138" s="154" t="s">
         <v>23</v>
       </c>
       <c r="D138" s="168" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E138" s="184" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F138" s="203" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G138" s="276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H138" s="158" t="s">
         <v>28</v>
@@ -11204,7 +11208,7 @@
         <v>2.0</v>
       </c>
       <c r="J138" s="160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K138" s="160"/>
       <c r="L138" s="160"/>
@@ -11227,7 +11231,7 @@
     </row>
     <row r="139">
       <c r="A139" s="173" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B139" s="202">
         <v>44842.0</v>
@@ -11236,16 +11240,16 @@
         <v>23</v>
       </c>
       <c r="D139" s="168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E139" s="184" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F139" s="203" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G139" s="276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H139" s="158" t="s">
         <v>28</v>
@@ -11254,16 +11258,16 @@
         <v>2.0</v>
       </c>
       <c r="J139" s="160" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K139" s="160" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L139" s="160" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M139" s="160" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N139" s="162"/>
       <c r="O139" s="162"/>
@@ -11283,7 +11287,7 @@
     </row>
     <row r="140">
       <c r="A140" s="173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B140" s="202">
         <v>44841.0</v>
@@ -11292,23 +11296,23 @@
         <v>23</v>
       </c>
       <c r="D140" s="168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E140" s="184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F140" s="203" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G140" s="276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H140" s="158" t="s">
         <v>28</v>
       </c>
       <c r="I140" s="159"/>
       <c r="J140" s="160" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K140" s="160"/>
       <c r="L140" s="160"/>
@@ -11331,7 +11335,7 @@
     </row>
     <row r="141">
       <c r="A141" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
@@ -11354,7 +11358,7 @@
     </row>
     <row r="142">
       <c r="A142" s="54" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B142" s="90" t="s">
         <v>108</v>
@@ -11363,16 +11367,16 @@
         <v>109</v>
       </c>
       <c r="D142" s="92" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E142" s="92" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F142" s="94" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G142" s="237" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H142" s="101" t="s">
         <v>28</v>
@@ -11382,10 +11386,10 @@
       <c r="K142" s="48"/>
       <c r="L142" s="22"/>
       <c r="M142" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N142" s="48" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O142" s="22"/>
       <c r="P142" s="22"/>
@@ -11395,7 +11399,7 @@
     </row>
     <row r="143">
       <c r="A143" s="277" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B143" s="278">
         <v>44172.0</v>
@@ -11404,16 +11408,16 @@
         <v>109</v>
       </c>
       <c r="D143" s="144" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E143" s="279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F143" s="108" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G143" s="229" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H143" s="132" t="s">
         <v>28</v>
@@ -11425,10 +11429,10 @@
       <c r="K143" s="22"/>
       <c r="L143" s="22"/>
       <c r="M143" s="48" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N143" s="48" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O143" s="22"/>
       <c r="P143" s="22"/>
@@ -11438,7 +11442,7 @@
     </row>
     <row r="144">
       <c r="A144" s="277" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B144" s="278">
         <v>44172.0</v>
@@ -11450,13 +11454,13 @@
         <v>129</v>
       </c>
       <c r="E144" s="279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F144" s="108" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G144" s="229" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H144" s="132" t="s">
         <v>28</v>
@@ -11464,10 +11468,10 @@
       <c r="I144" s="73"/>
       <c r="J144" s="22"/>
       <c r="K144" s="48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L144" s="48" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
@@ -11479,7 +11483,7 @@
     </row>
     <row r="145">
       <c r="A145" s="74" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B145" s="280">
         <v>44172.0</v>
@@ -11491,32 +11495,32 @@
         <v>155</v>
       </c>
       <c r="E145" s="281" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F145" s="131" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G145" s="237" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H145" s="282" t="s">
         <v>28</v>
       </c>
       <c r="I145" s="78"/>
       <c r="J145" s="48" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K145" s="48" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L145" s="48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M145" s="48" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N145" s="48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
@@ -11526,35 +11530,35 @@
     </row>
     <row r="146">
       <c r="A146" s="74" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B146" s="283">
         <v>44111.0</v>
       </c>
       <c r="C146" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D146" s="130" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E146" s="130" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F146" s="131" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G146" s="229" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H146" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I146" s="78"/>
       <c r="J146" s="78" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K146" s="48" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
@@ -11567,38 +11571,38 @@
     </row>
     <row r="147">
       <c r="A147" s="74" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B147" s="129">
         <v>44841.0</v>
       </c>
       <c r="C147" s="146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D147" s="130" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E147" s="130" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F147" s="131" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G147" s="229" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H147" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I147" s="78"/>
       <c r="J147" s="78" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K147" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L147" s="48" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M147" s="22"/>
       <c r="N147" s="22"/>
@@ -11610,7 +11614,7 @@
     </row>
     <row r="148" ht="31.5" customHeight="1">
       <c r="A148" s="19" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
@@ -11633,10 +11637,10 @@
     </row>
     <row r="149">
       <c r="A149" s="74" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B149" s="140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C149" s="91" t="s">
         <v>98</v>
@@ -11646,26 +11650,26 @@
         <v>100</v>
       </c>
       <c r="F149" s="131" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G149" s="237" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H149" s="282" t="s">
         <v>28</v>
       </c>
       <c r="I149" s="78"/>
       <c r="J149" s="48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K149" s="48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L149" s="48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M149" s="48" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
@@ -11676,10 +11680,10 @@
     </row>
     <row r="150">
       <c r="A150" s="54" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C150" s="91" t="s">
         <v>98</v>
@@ -11689,10 +11693,10 @@
         <v>100</v>
       </c>
       <c r="F150" s="103" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G150" s="110" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H150" s="282" t="s">
         <v>28</v>
@@ -11720,7 +11724,7 @@
     </row>
     <row r="151">
       <c r="A151" s="74" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B151" s="140" t="s">
         <v>171</v>
@@ -11730,26 +11734,26 @@
       </c>
       <c r="D151" s="142"/>
       <c r="E151" s="142" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F151" s="131" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G151" s="237" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H151" s="282" t="s">
         <v>28</v>
       </c>
       <c r="I151" s="78"/>
       <c r="J151" s="48" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K151" s="48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L151" s="48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M151" s="22"/>
       <c r="N151" s="22"/>
@@ -11761,7 +11765,7 @@
     </row>
     <row r="152">
       <c r="A152" s="106" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B152" s="143">
         <v>44902.0</v>
@@ -11773,26 +11777,26 @@
         <v>129</v>
       </c>
       <c r="E152" s="144" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F152" s="108" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G152" s="229" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H152" s="132" t="s">
         <v>28</v>
       </c>
       <c r="I152" s="78"/>
       <c r="J152" s="48" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K152" s="48" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L152" s="48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M152" s="48"/>
       <c r="N152" s="22"/>
@@ -11804,10 +11808,10 @@
     </row>
     <row r="153">
       <c r="A153" s="106" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B153" s="230" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C153" s="99" t="s">
         <v>109</v>
@@ -11816,13 +11820,13 @@
         <v>129</v>
       </c>
       <c r="E153" s="144" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F153" s="108" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G153" s="229" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H153" s="132" t="s">
         <v>28</v>
@@ -11832,7 +11836,7 @@
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
       <c r="M153" s="48" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
@@ -11843,7 +11847,7 @@
     </row>
     <row r="154">
       <c r="A154" s="74" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B154" s="283">
         <v>44111.0</v>
@@ -11855,32 +11859,31 @@
         <v>218</v>
       </c>
       <c r="E154" s="130" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F154" s="131" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G154" s="237" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H154" s="282" t="s">
         <v>28</v>
       </c>
-      <c r="I154" s="286"/>
-      <c r="J154" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="K154" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="L154" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="M154" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="N154" s="207" t="s">
-        <v>726</v>
+      <c r="J154" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="K154" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="L154" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="M154" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="N154" s="286" t="s">
+        <v>229</v>
       </c>
       <c r="O154" s="22"/>
       <c r="P154" s="22"/>
@@ -11893,7 +11896,7 @@
         <v>727</v>
       </c>
       <c r="B155" s="288" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C155" s="112" t="s">
         <v>109</v>
@@ -11908,26 +11911,26 @@
         <v>729</v>
       </c>
       <c r="G155" s="237" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H155" s="282" t="s">
         <v>28</v>
       </c>
       <c r="I155" s="286"/>
-      <c r="J155" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="K155" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="L155" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="M155" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="N155" s="207" t="s">
-        <v>726</v>
+      <c r="J155" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="K155" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="L155" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="M155" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="N155" s="286" t="s">
+        <v>229</v>
       </c>
       <c r="O155" s="291"/>
       <c r="P155" s="291"/>
@@ -11970,9 +11973,15 @@
         <v>28</v>
       </c>
       <c r="I156" s="298"/>
-      <c r="J156" s="299"/>
-      <c r="K156" s="299"/>
-      <c r="L156" s="299"/>
+      <c r="J156" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="K156" s="286" t="s">
+        <v>229</v>
+      </c>
+      <c r="L156" s="286" t="s">
+        <v>229</v>
+      </c>
       <c r="M156" s="299"/>
       <c r="N156" s="299"/>
       <c r="O156" s="291"/>
@@ -12165,7 +12174,7 @@
         <v>742</v>
       </c>
       <c r="F162" s="309" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G162" s="310" t="s">
         <v>743</v>
@@ -12570,7 +12579,7 @@
         <v>781</v>
       </c>
       <c r="F171" s="327" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G171" s="255" t="s">
         <v>743</v>
@@ -12654,7 +12663,7 @@
         <v>786</v>
       </c>
       <c r="F173" s="334" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G173" s="255" t="s">
         <v>743</v>
@@ -12696,7 +12705,7 @@
         <v>787</v>
       </c>
       <c r="F174" s="334" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G174" s="255" t="s">
         <v>743</v>
@@ -12769,7 +12778,7 @@
     </row>
     <row r="176">
       <c r="A176" s="339" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B176" s="340"/>
       <c r="C176" s="340"/>
@@ -12805,10 +12814,10 @@
         <v>793</v>
       </c>
       <c r="F177" s="131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G177" s="342" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H177" s="132" t="s">
         <v>744</v>
@@ -12838,10 +12847,10 @@
         <v>795</v>
       </c>
       <c r="F178" s="82" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G178" s="255" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H178" s="77" t="s">
         <v>744</v>
@@ -12871,10 +12880,10 @@
         <v>798</v>
       </c>
       <c r="F179" s="334" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G179" s="255" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H179" s="52" t="s">
         <v>744</v>
@@ -12913,10 +12922,10 @@
         <v>786</v>
       </c>
       <c r="F180" s="334" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G180" s="255" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H180" s="52" t="s">
         <v>744</v>
@@ -12982,7 +12991,7 @@
         <v>801</v>
       </c>
       <c r="F182" s="347" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G182" s="45" t="s">
         <v>802</v>
@@ -13028,7 +13037,7 @@
         <v>805</v>
       </c>
       <c r="F183" s="319" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G183" s="110" t="s">
         <v>802</v>
@@ -13066,13 +13075,13 @@
       </c>
       <c r="C184" s="349"/>
       <c r="D184" s="350" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E184" s="350" t="s">
         <v>807</v>
       </c>
       <c r="F184" s="76" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G184" s="30" t="s">
         <v>802</v>
@@ -13169,7 +13178,7 @@
     </row>
     <row r="187">
       <c r="A187" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
@@ -13207,10 +13216,10 @@
         <v>814</v>
       </c>
       <c r="F188" s="108" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G188" s="239" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H188" s="46" t="s">
         <v>744</v>
@@ -13242,10 +13251,10 @@
         <v>816</v>
       </c>
       <c r="F189" s="357" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G189" s="358" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H189" s="52" t="s">
         <v>744</v>
@@ -13273,7 +13282,7 @@
     </row>
     <row r="190">
       <c r="A190" s="339" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B190" s="340"/>
       <c r="C190" s="340"/>
@@ -13307,10 +13316,10 @@
         <v>818</v>
       </c>
       <c r="F191" s="76" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G191" s="359" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H191" s="77" t="s">
         <v>744</v>
@@ -22537,53 +22546,52 @@
     <hyperlink r:id="rId139" ref="F152"/>
     <hyperlink r:id="rId140" ref="A153"/>
     <hyperlink r:id="rId141" ref="F153"/>
-    <hyperlink r:id="rId142" ref="A154"/>
-    <hyperlink r:id="rId143" ref="F154"/>
-    <hyperlink r:id="rId144" ref="A155"/>
-    <hyperlink r:id="rId145" ref="F155"/>
-    <hyperlink r:id="rId146" ref="F156"/>
-    <hyperlink r:id="rId147" ref="A157"/>
-    <hyperlink r:id="rId148" ref="F157"/>
-    <hyperlink r:id="rId149" ref="F158"/>
-    <hyperlink r:id="rId150" ref="F159"/>
-    <hyperlink r:id="rId151" ref="A162"/>
-    <hyperlink r:id="rId152" ref="F162"/>
-    <hyperlink r:id="rId153" ref="A164"/>
-    <hyperlink r:id="rId154" ref="F164"/>
-    <hyperlink r:id="rId155" ref="F165"/>
-    <hyperlink r:id="rId156" ref="A166"/>
-    <hyperlink r:id="rId157" ref="F166"/>
-    <hyperlink r:id="rId158" ref="F167"/>
-    <hyperlink r:id="rId159" ref="A168"/>
-    <hyperlink r:id="rId160" ref="F168"/>
-    <hyperlink r:id="rId161" ref="A169"/>
-    <hyperlink r:id="rId162" ref="F169"/>
-    <hyperlink r:id="rId163" ref="A170"/>
-    <hyperlink r:id="rId164" ref="F170"/>
-    <hyperlink r:id="rId165" ref="A171"/>
-    <hyperlink r:id="rId166" ref="F171"/>
-    <hyperlink r:id="rId167" ref="F175"/>
-    <hyperlink r:id="rId168" ref="A177"/>
-    <hyperlink r:id="rId169" ref="F177"/>
-    <hyperlink r:id="rId170" ref="A178"/>
-    <hyperlink r:id="rId171" ref="F178"/>
-    <hyperlink r:id="rId172" ref="F179"/>
-    <hyperlink r:id="rId173" ref="F180"/>
-    <hyperlink r:id="rId174" ref="A182"/>
-    <hyperlink r:id="rId175" ref="F182"/>
-    <hyperlink r:id="rId176" ref="F183"/>
-    <hyperlink r:id="rId177" ref="A185"/>
-    <hyperlink r:id="rId178" ref="F185"/>
-    <hyperlink r:id="rId179" ref="A186"/>
-    <hyperlink r:id="rId180" ref="F186"/>
-    <hyperlink r:id="rId181" ref="A188"/>
-    <hyperlink r:id="rId182" ref="F188"/>
-    <hyperlink r:id="rId183" ref="A191"/>
-    <hyperlink r:id="rId184" ref="F191"/>
+    <hyperlink r:id="rId142" ref="F154"/>
+    <hyperlink r:id="rId143" ref="A155"/>
+    <hyperlink r:id="rId144" ref="F155"/>
+    <hyperlink r:id="rId145" ref="F156"/>
+    <hyperlink r:id="rId146" ref="A157"/>
+    <hyperlink r:id="rId147" ref="F157"/>
+    <hyperlink r:id="rId148" ref="F158"/>
+    <hyperlink r:id="rId149" ref="F159"/>
+    <hyperlink r:id="rId150" ref="A162"/>
+    <hyperlink r:id="rId151" ref="F162"/>
+    <hyperlink r:id="rId152" ref="A164"/>
+    <hyperlink r:id="rId153" ref="F164"/>
+    <hyperlink r:id="rId154" ref="F165"/>
+    <hyperlink r:id="rId155" ref="A166"/>
+    <hyperlink r:id="rId156" ref="F166"/>
+    <hyperlink r:id="rId157" ref="F167"/>
+    <hyperlink r:id="rId158" ref="A168"/>
+    <hyperlink r:id="rId159" ref="F168"/>
+    <hyperlink r:id="rId160" ref="A169"/>
+    <hyperlink r:id="rId161" ref="F169"/>
+    <hyperlink r:id="rId162" ref="A170"/>
+    <hyperlink r:id="rId163" ref="F170"/>
+    <hyperlink r:id="rId164" ref="A171"/>
+    <hyperlink r:id="rId165" ref="F171"/>
+    <hyperlink r:id="rId166" ref="F175"/>
+    <hyperlink r:id="rId167" ref="A177"/>
+    <hyperlink r:id="rId168" ref="F177"/>
+    <hyperlink r:id="rId169" ref="A178"/>
+    <hyperlink r:id="rId170" ref="F178"/>
+    <hyperlink r:id="rId171" ref="F179"/>
+    <hyperlink r:id="rId172" ref="F180"/>
+    <hyperlink r:id="rId173" ref="A182"/>
+    <hyperlink r:id="rId174" ref="F182"/>
+    <hyperlink r:id="rId175" ref="F183"/>
+    <hyperlink r:id="rId176" ref="A185"/>
+    <hyperlink r:id="rId177" ref="F185"/>
+    <hyperlink r:id="rId178" ref="A186"/>
+    <hyperlink r:id="rId179" ref="F186"/>
+    <hyperlink r:id="rId180" ref="A188"/>
+    <hyperlink r:id="rId181" ref="F188"/>
+    <hyperlink r:id="rId182" ref="A191"/>
+    <hyperlink r:id="rId183" ref="F191"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId185"/>
+  <drawing r:id="rId184"/>
 </worksheet>
 </file>